--- a/Data_processed/regional/asia_consolidated.xlsx
+++ b/Data_processed/regional/asia_consolidated.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/regional/asia_consolidated.xlsx
+++ b/Data_processed/regional/asia_consolidated.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/regional/asia_consolidated.xlsx
+++ b/Data_processed/regional/asia_consolidated.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0403012437709</v>
+        <v>0.26148888</v>
       </c>
       <c r="E2" t="n">
-        <v>0.26148888</v>
+        <v>6.5711769</v>
       </c>
       <c r="F2" t="n">
-        <v>6.5711769</v>
+        <v>7.2910037e-06</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.037915243784</v>
+        <v>0.2458252266666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2458252266666667</v>
+        <v>6.3117561</v>
       </c>
       <c r="F3" t="n">
-        <v>6.3117561</v>
+        <v>6.8542596e-06</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.03133640994</v>
+        <v>0.2027121</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2027121</v>
+        <v>5.5996635</v>
       </c>
       <c r="F4" t="n">
-        <v>5.5996635</v>
+        <v>5.6521513e-06</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.034799711948</v>
+        <v>0.2254119133333334</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2254119133333334</v>
+        <v>5.9748933</v>
       </c>
       <c r="F5" t="n">
-        <v>5.9748933</v>
+        <v>6.2850823e-06</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.032544768348</v>
+        <v>0.2106227666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2106227666666667</v>
+        <v>5.730846</v>
       </c>
       <c r="F6" t="n">
-        <v>5.730846</v>
+        <v>5.8727216e-06</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.030678567443</v>
+        <v>0.15633982</v>
       </c>
       <c r="E7" t="n">
-        <v>0.15633982</v>
+        <v>5.9187545</v>
       </c>
       <c r="F7" t="n">
-        <v>5.9187545</v>
+        <v>4.3591691e-06</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.025641624152</v>
+        <v>0.1655053733333333</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1655053733333333</v>
+        <v>4.9863687</v>
       </c>
       <c r="F8" t="n">
-        <v>4.9863687</v>
+        <v>4.6147289e-06</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.030296772568</v>
+        <v>0.1959247933333333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1959247933333333</v>
+        <v>5.488086</v>
       </c>
       <c r="F9" t="n">
-        <v>5.488086</v>
+        <v>5.4629031e-06</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.040032666482</v>
+        <v>0.25970618</v>
       </c>
       <c r="E10" t="n">
-        <v>0.25970618</v>
+        <v>6.5416111</v>
       </c>
       <c r="F10" t="n">
-        <v>6.5416111</v>
+        <v>7.2412974e-06</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.035866687477</v>
+        <v>0.21788696</v>
       </c>
       <c r="E11" t="n">
-        <v>0.21788696</v>
+        <v>6.2249096</v>
       </c>
       <c r="F11" t="n">
-        <v>6.2249096</v>
+        <v>6.0752667e-06</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.034914463095</v>
+        <v>0.1981833333333334</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1981833333333334</v>
+        <v>6.2476254</v>
       </c>
       <c r="F12" t="n">
-        <v>6.2476254</v>
+        <v>5.5258772e-06</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.037374126013</v>
+        <v>0.24230588</v>
       </c>
       <c r="E13" t="n">
-        <v>0.24230588</v>
+        <v>6.2539617</v>
       </c>
       <c r="F13" t="n">
-        <v>6.2539617</v>
+        <v>6.7561308e-06</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.031480387471</v>
+        <v>0.1605092933333334</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1605092933333334</v>
+        <v>6.0187442</v>
       </c>
       <c r="F14" t="n">
-        <v>6.0187442</v>
+        <v>4.475425e-06</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.033838557167</v>
+        <v>0.2191823466666667</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2191823466666667</v>
+        <v>5.8721818</v>
       </c>
       <c r="F15" t="n">
-        <v>5.8721818</v>
+        <v>6.1113854e-06</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.03557898684</v>
+        <v>0.2248807133333333</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2248807133333333</v>
+        <v>6.1115408</v>
       </c>
       <c r="F16" t="n">
-        <v>6.1115408</v>
+        <v>6.2702709e-06</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.034169174163</v>
+        <v>0.22132368</v>
       </c>
       <c r="E17" t="n">
-        <v>0.22132368</v>
+        <v>5.9079018</v>
       </c>
       <c r="F17" t="n">
-        <v>5.9079018</v>
+        <v>6.1710915e-06</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.019173858417</v>
+        <v>0.1235705066666667</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1235705066666667</v>
+        <v>4.2956038</v>
       </c>
       <c r="F18" t="n">
-        <v>4.2956038</v>
+        <v>3.4454736e-06</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.023680010185</v>
+        <v>0.1528896466666667</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1528896466666667</v>
+        <v>4.7792129</v>
       </c>
       <c r="F19" t="n">
-        <v>4.7792129</v>
+        <v>4.2629691e-06</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.034733906087</v>
+        <v>0.1943637333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1943637333333333</v>
+        <v>6.2526771</v>
       </c>
       <c r="F20" t="n">
-        <v>6.2526771</v>
+        <v>5.4193766e-06</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.025378481019</v>
+        <v>0.1420520466666667</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1420520466666667</v>
+        <v>5.1634653</v>
       </c>
       <c r="F21" t="n">
-        <v>5.1634653</v>
+        <v>3.960788e-06</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.033893561972</v>
+        <v>0.18212972</v>
       </c>
       <c r="E22" t="n">
-        <v>0.18212972</v>
+        <v>6.2233437</v>
       </c>
       <c r="F22" t="n">
-        <v>6.2233437</v>
+        <v>5.0782598e-06</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.031928400548</v>
+        <v>0.2068272133333333</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2068272133333333</v>
+        <v>5.669548</v>
       </c>
       <c r="F23" t="n">
-        <v>5.669548</v>
+        <v>5.7668915e-06</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.00754055835</v>
+        <v>0.04776863133333333</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04776863133333333</v>
+        <v>3.0464557</v>
       </c>
       <c r="F24" t="n">
-        <v>3.0464557</v>
+        <v>1.3319162e-06</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.027672480303</v>
+        <v>0.1789799533333333</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1789799533333333</v>
+        <v>5.2091253</v>
       </c>
       <c r="F25" t="n">
-        <v>5.2091253</v>
+        <v>4.990436e-06</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.006089244984</v>
+        <v>0.038210444</v>
       </c>
       <c r="E26" t="n">
-        <v>0.038210444</v>
+        <v>2.8880417</v>
       </c>
       <c r="F26" t="n">
-        <v>2.8880417</v>
+        <v>1.0654086e-06</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.001769417688</v>
+        <v>0.010111274</v>
       </c>
       <c r="E27" t="n">
-        <v>0.010111274</v>
+        <v>2.4246647</v>
       </c>
       <c r="F27" t="n">
-        <v>2.4246647</v>
+        <v>2.8192915e-07</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.035887139277</v>
+        <v>0.23257274</v>
       </c>
       <c r="E28" t="n">
-        <v>0.23257274</v>
+        <v>6.0932509</v>
       </c>
       <c r="F28" t="n">
-        <v>6.0932509</v>
+        <v>6.4847451e-06</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.02077809168</v>
+        <v>0.1337171266666667</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1337171266666667</v>
+        <v>4.4608343</v>
       </c>
       <c r="F29" t="n">
-        <v>4.4608343</v>
+        <v>3.7283882e-06</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.00573103766</v>
+        <v>0.03551259933333334</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03551259933333334</v>
+        <v>2.8387454</v>
       </c>
       <c r="F30" t="n">
-        <v>2.8387454</v>
+        <v>9.901854899999999e-07</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.031374395827</v>
+        <v>0.2029564333333333</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2029564333333333</v>
+        <v>5.6029334</v>
       </c>
       <c r="F31" t="n">
-        <v>5.6029334</v>
+        <v>5.6589639e-06</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.030454046029</v>
+        <v>0.1970088333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1970088333333333</v>
+        <v>5.5059694</v>
       </c>
       <c r="F32" t="n">
-        <v>5.5059694</v>
+        <v>5.493129e-06</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.06193187418</v>
+        <v>0.3194690133333333</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3194690133333333</v>
+        <v>3.4160813</v>
       </c>
       <c r="F33" t="n">
-        <v>3.4160813</v>
+        <v>8.9076437e-06</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.045356591401</v>
+        <v>0.2765348133333334</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2765348133333334</v>
+        <v>3.2140221</v>
       </c>
       <c r="F34" t="n">
-        <v>3.2140221</v>
+        <v>7.710524400000001e-06</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.000618202119566</v>
+        <v>0.002479979733333334</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002479979733333334</v>
+        <v>1.2396245</v>
       </c>
       <c r="F35" t="n">
-        <v>1.2396245</v>
+        <v>6.914841600000001e-08</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.046072985429</v>
+        <v>0.2740187666666667</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2740187666666667</v>
+        <v>3.1470098</v>
       </c>
       <c r="F36" t="n">
-        <v>3.1470098</v>
+        <v>7.6403703e-06</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.0572857509857</v>
+        <v>0.34985066</v>
       </c>
       <c r="E37" t="n">
-        <v>0.34985066</v>
+        <v>3.7470553</v>
       </c>
       <c r="F37" t="n">
-        <v>3.7470553</v>
+        <v>9.7547647e-06</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.0010784420684</v>
+        <v>0.003940904333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>0.003940904333333333</v>
+        <v>1.2396245</v>
       </c>
       <c r="F38" t="n">
-        <v>1.2396245</v>
+        <v>1.0988287e-07</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.05673145608750001</v>
+        <v>0.3459967333333334</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3459967333333334</v>
+        <v>3.737914</v>
       </c>
       <c r="F39" t="n">
-        <v>3.737914</v>
+        <v>9.647307000000001e-06</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1665,13 +1710,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.00529718495</v>
+        <v>0.002545318066666667</v>
       </c>
       <c r="E40" t="n">
-        <v>0.002545318066666667</v>
+        <v>2.3796327</v>
       </c>
       <c r="F40" t="n">
-        <v>2.3796327</v>
+        <v>7.0970222e-08</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1696,13 +1741,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.034541150794</v>
+        <v>0.1937403933333333</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1937403933333333</v>
+        <v>2.5154459</v>
       </c>
       <c r="F41" t="n">
-        <v>2.5154459</v>
+        <v>5.4019963e-06</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1727,13 +1772,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.0009434211153999999</v>
+        <v>0.003447503133333333</v>
       </c>
       <c r="E42" t="n">
-        <v>0.003447503133333333</v>
+        <v>1.2473845</v>
       </c>
       <c r="F42" t="n">
-        <v>1.2473845</v>
+        <v>9.6125534e-08</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1758,13 +1803,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.0360252951</v>
+        <v>0.2079049066666667</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2079049066666667</v>
+        <v>2.8446502</v>
       </c>
       <c r="F43" t="n">
-        <v>2.8446502</v>
+        <v>5.7969405e-06</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1789,13 +1834,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.054862057745</v>
+        <v>0.3340773733333334</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3340773733333334</v>
+        <v>3.6653597</v>
       </c>
       <c r="F44" t="n">
-        <v>3.6653597</v>
+        <v>9.3149636e-06</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1820,13 +1865,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.000618662585</v>
+        <v>0.0024814414</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0024814414</v>
+        <v>1.2396245</v>
       </c>
       <c r="F45" t="n">
-        <v>1.2396245</v>
+        <v>6.918917000000001e-08</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1851,13 +1896,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.0006179718869</v>
+        <v>0.002479248933333333</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002479248933333333</v>
+        <v>1.2396245</v>
       </c>
       <c r="F46" t="n">
-        <v>1.2396245</v>
+        <v>6.9128038e-08</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1882,13 +1927,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.0572162814591</v>
+        <v>0.3496074733333334</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3496074733333334</v>
+        <v>3.7379459</v>
       </c>
       <c r="F47" t="n">
-        <v>3.7379459</v>
+        <v>9.7479841e-06</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1913,13 +1958,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.03037106667</v>
+        <v>0.1666445933333333</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1666445933333333</v>
+        <v>2.7229208</v>
       </c>
       <c r="F48" t="n">
-        <v>2.7229208</v>
+        <v>4.6464934e-06</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1944,13 +1989,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.000817107918</v>
+        <v>0.0026977714</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0026977714</v>
+        <v>1.2703211</v>
       </c>
       <c r="F49" t="n">
-        <v>1.2703211</v>
+        <v>7.5221026e-08</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1975,13 +2020,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.05750158464875001</v>
+        <v>0.3513559333333334</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3513559333333334</v>
+        <v>3.7505192</v>
       </c>
       <c r="F50" t="n">
-        <v>3.7505192</v>
+        <v>9.796735699999999e-06</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2006,13 +2051,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.051968098064</v>
+        <v>0.317259</v>
       </c>
       <c r="E51" t="n">
-        <v>0.317259</v>
+        <v>3.5083763</v>
       </c>
       <c r="F51" t="n">
-        <v>3.5083763</v>
+        <v>8.846022799999999e-06</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2037,13 +2082,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.048076234781</v>
+        <v>0.28171948</v>
       </c>
       <c r="E52" t="n">
-        <v>0.28171948</v>
+        <v>3.4425417</v>
       </c>
       <c r="F52" t="n">
-        <v>3.4425417</v>
+        <v>7.8550866e-06</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2068,13 +2113,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.00062617327231</v>
+        <v>0.0025019694</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0025019694</v>
+        <v>1.2400211</v>
       </c>
       <c r="F53" t="n">
-        <v>1.2400211</v>
+        <v>6.976154599999999e-08</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2099,13 +2144,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.0006179718869</v>
+        <v>0.002479248933333333</v>
       </c>
       <c r="E54" t="n">
-        <v>0.002479248933333333</v>
+        <v>1.2396245</v>
       </c>
       <c r="F54" t="n">
-        <v>1.2396245</v>
+        <v>6.9128038e-08</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2130,13 +2175,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.00062469473974</v>
+        <v>0.002500589066666667</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002500589066666667</v>
+        <v>1.2396245</v>
       </c>
       <c r="F55" t="n">
-        <v>1.2396245</v>
+        <v>6.9723059e-08</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2161,13 +2206,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.0006179718869</v>
+        <v>0.002479248933333333</v>
       </c>
       <c r="E56" t="n">
-        <v>0.002479248933333333</v>
+        <v>1.2396245</v>
       </c>
       <c r="F56" t="n">
-        <v>1.2396245</v>
+        <v>6.9128038e-08</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2192,13 +2237,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.052034338599</v>
+        <v>0.3177190333333333</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3177190333333333</v>
+        <v>3.5123024</v>
       </c>
       <c r="F57" t="n">
-        <v>3.5123024</v>
+        <v>8.858849699999999e-06</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2223,13 +2268,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.03911754162</v>
+        <v>0.21942052</v>
       </c>
       <c r="E58" t="n">
-        <v>0.21942052</v>
+        <v>2.6768029</v>
       </c>
       <c r="F58" t="n">
-        <v>2.6768029</v>
+        <v>6.1180263e-06</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2254,13 +2299,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.044912393888</v>
+        <v>0.2726714666666667</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2726714666666667</v>
+        <v>3.2398612</v>
       </c>
       <c r="F59" t="n">
-        <v>3.2398612</v>
+        <v>7.602804e-06</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2285,13 +2330,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.03251991413</v>
+        <v>0.1860564533333333</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1860564533333333</v>
+        <v>2.7124628</v>
       </c>
       <c r="F60" t="n">
-        <v>2.7124628</v>
+        <v>5.1877475e-06</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2316,13 +2361,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.0006179718869</v>
+        <v>0.002479248933333333</v>
       </c>
       <c r="E61" t="n">
-        <v>0.002479248933333333</v>
+        <v>1.2396245</v>
       </c>
       <c r="F61" t="n">
-        <v>1.2396245</v>
+        <v>6.9128038e-08</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2347,13 +2392,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.038348088442</v>
+        <v>0.2073880133333333</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2073880133333333</v>
+        <v>3.0687868</v>
       </c>
       <c r="F62" t="n">
-        <v>3.0687868</v>
+        <v>5.7825281e-06</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2363,5 +2408,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>